--- a/Data/Metadata/Angiosperms/powo/Rubiaceae.xlsx
+++ b/Data/Metadata/Angiosperms/powo/Rubiaceae.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3224,6 +3224,61 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Rubiaceae</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Faramea</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>scandens</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>(K.Krause) C.M.Taylor &amp; J.G.Jardim</t>
+        </is>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Faramea_scandens</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;b&gt;Location&lt;/b&gt;: &lt;em&gt;Brazil&lt;/em&gt;</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>/taxon/urn:lsid:ipni.org:names:77211735-1</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>urn:lsid:ipni.org:names:77211735-1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
